--- a/Docs/Team_vs_Team_Output.xlsx
+++ b/Docs/Team_vs_Team_Output.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\ESPN CricInfo Scrape\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D29C5-1B2D-461F-B485-18AA147365C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1F167-EA09-4EF7-89A2-448604B44753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team_VS_Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Team1" sheetId="1" r:id="rId1"/>
+    <sheet name="Team2" sheetId="2" r:id="rId2"/>
+    <sheet name="MATCH_IDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>Player1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+  <si>
+    <t>Player1 ID</t>
   </si>
   <si>
     <t>Player1 Name</t>
   </si>
   <si>
-    <t>Player2</t>
+    <t>Player2 ID</t>
   </si>
   <si>
     <t>Player2 Name</t>
@@ -43,19 +45,19 @@
     <t>Bowl_Innings</t>
   </si>
   <si>
-    <t>Avg Batting_Points</t>
-  </si>
-  <si>
-    <t>Avg Bowling_Points</t>
-  </si>
-  <si>
-    <t>Avg Value_Points</t>
-  </si>
-  <si>
-    <t>Avg Rank</t>
-  </si>
-  <si>
-    <t>Avg Dream_Team</t>
+    <t>Avg Batting_Fantasy</t>
+  </si>
+  <si>
+    <t>Avg Bowling_Fantasy</t>
+  </si>
+  <si>
+    <t>Avg Value_Fantasy</t>
+  </si>
+  <si>
+    <t>Avg Player_Rank</t>
+  </si>
+  <si>
+    <t>Avg In_Dream_Team</t>
   </si>
   <si>
     <t>Avg Captain</t>
@@ -70,16 +72,22 @@
     <t>KL Rahul</t>
   </si>
   <si>
+    <t>Mohammed Siraj</t>
+  </si>
+  <si>
+    <t>Josh Hazlewood</t>
+  </si>
+  <si>
+    <t>Adam Zampa</t>
+  </si>
+  <si>
     <t>Glenn Maxwell</t>
   </si>
   <si>
-    <t>Josh Hazlewood</t>
-  </si>
-  <si>
-    <t>Adam Zampa</t>
-  </si>
-  <si>
-    <t>Mohammed Siraj</t>
+    <t>Match_ID</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -450,22 +458,23 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -528,31 +537,31 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -572,28 +581,28 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>43.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -610,37 +619,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>940973</v>
+        <v>325026</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30.838709677419359</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>35.612903225806448</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.2903</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.7097</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -660,34 +669,34 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>52.875</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>113</v>
+        <v>52.875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>9.8125</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -704,31 +713,31 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>113</v>
+        <v>45.925925925925917</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>113</v>
+        <v>45.925925925925917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>9.4443999999999999</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.62960000000000005</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -742,45 +751,45 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>940973</v>
+        <v>325026</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.9655000000000005</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>325026</v>
+        <v>940973</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -792,28 +801,28 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -824,7 +833,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>325026</v>
+        <v>940973</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -836,34 +845,505 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>36.333333333333343</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.333299999999999</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>940973</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>325026</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>5.5</v>
+      </c>
+      <c r="I10">
+        <v>21.428571428571431</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>14.857100000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>288284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>26421</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>7.25</v>
+      </c>
+      <c r="I2">
+        <v>36.5</v>
+      </c>
+      <c r="J2">
+        <v>39.4</v>
+      </c>
+      <c r="K2">
+        <v>9.9</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>379504</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>26421</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>15.8</v>
+      </c>
+      <c r="J3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>325026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>26421</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>37.064516129032263</v>
+      </c>
+      <c r="I4">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="J4">
+        <v>41.903225806451623</v>
+      </c>
+      <c r="K4">
+        <v>10.161300000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.5161</v>
+      </c>
+      <c r="M4">
+        <v>0.129</v>
+      </c>
+      <c r="N4">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>288284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>422108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
+      </c>
+      <c r="I5">
+        <v>44.4375</v>
+      </c>
+      <c r="J5">
+        <v>46.875</v>
+      </c>
+      <c r="K5">
+        <v>9.9375</v>
+      </c>
+      <c r="L5">
+        <v>0.75</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>379504</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>422108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="I6">
+        <v>33.370370370370367</v>
+      </c>
+      <c r="J6">
+        <v>34.666666666666657</v>
+      </c>
+      <c r="K6">
+        <v>11.592599999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="M6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>325026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>422108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>40.03448275862069</v>
+      </c>
+      <c r="I7">
+        <v>14.45</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>9.3793000000000006</v>
+      </c>
+      <c r="L7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="M7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>288284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>940973</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>45.25</v>
+      </c>
+      <c r="J8">
+        <v>45.5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0.75</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>379504</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>940973</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>32.166666666666657</v>
+      </c>
+      <c r="J9">
+        <v>34.833333333333343</v>
+      </c>
+      <c r="K9">
+        <v>11.833299999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.16669999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -871,43 +1351,650 @@
         <v>325026</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>940973</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>26.714285714285719</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>40.285714285714278</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>10.428599999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1384396</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1384439</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>951363</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1389389</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1282513</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1359534</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1389390</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1327503</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1223952</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1327504</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1327505</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1223955</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1223956</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1223957</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1348656</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1312199</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>656493</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1304085</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>895807</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1389388</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1136582</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1312198</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1304077</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1187029</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1359517</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1223953</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1223954</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1144990</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1144992</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1144496</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1348657</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1348658</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1168245</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1168247</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1168248</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1254114</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>574254</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1254110</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1359506</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1216546</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>733987</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>533287</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>980919</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>754749</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>895809</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>729283</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>682951</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>895819</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>895821</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>647247</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>647249</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>647251</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1254101</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>647253</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>647259</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>647261</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>734047</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1216493</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>763631</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>829809</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1254094</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1187027</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1187028</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>980969</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1359489</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1254083</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1254090</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>729295</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>829799</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1254113</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1216531</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1144998</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1136579</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
